--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H2">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I2">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J2">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.987818</v>
+        <v>19.412944</v>
       </c>
       <c r="N2">
-        <v>8.963454</v>
+        <v>58.238832</v>
       </c>
       <c r="O2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q2">
-        <v>46.05670255718267</v>
+        <v>313.9339325681867</v>
       </c>
       <c r="R2">
-        <v>414.510323014644</v>
+        <v>2825.40539311368</v>
       </c>
       <c r="S2">
-        <v>0.0237425969815942</v>
+        <v>0.2380411952801935</v>
       </c>
       <c r="T2">
-        <v>0.02374259698159419</v>
+        <v>0.2380411952801935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H3">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I3">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J3">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.22398</v>
       </c>
       <c r="O3">
-        <v>0.05825042696427194</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P3">
-        <v>0.05825042696427195</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q3">
-        <v>73.08673821936443</v>
+        <v>76.67375571974443</v>
       </c>
       <c r="R3">
-        <v>657.78064397428</v>
+        <v>690.0638014777001</v>
       </c>
       <c r="S3">
-        <v>0.03767679564309206</v>
+        <v>0.05813806844274567</v>
       </c>
       <c r="T3">
-        <v>0.03767679564309206</v>
+        <v>0.05813806844274567</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H4">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I4">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J4">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1099783333333333</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N4">
-        <v>0.329935</v>
+        <v>0.245974</v>
       </c>
       <c r="O4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q4">
-        <v>1.695297165378889</v>
+        <v>1.325912324778889</v>
       </c>
       <c r="R4">
-        <v>15.25767448841</v>
+        <v>11.93321092301</v>
       </c>
       <c r="S4">
-        <v>0.0008739391907541758</v>
+        <v>0.001005376360704664</v>
       </c>
       <c r="T4">
-        <v>0.0008739391907541755</v>
+        <v>0.001005376360704664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H5">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I5">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J5">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>72.98704766666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N5">
-        <v>218.961143</v>
+        <v>112.478254</v>
       </c>
       <c r="O5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q5">
-        <v>1125.0828346675</v>
+        <v>606.3092166172455</v>
       </c>
       <c r="R5">
-        <v>10125.7455120075</v>
+        <v>5456.78294955521</v>
       </c>
       <c r="S5">
-        <v>0.5799891618653048</v>
+        <v>0.4597354910069145</v>
       </c>
       <c r="T5">
-        <v>0.5799891618653047</v>
+        <v>0.4597354910069145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H6">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I6">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J6">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,43 +809,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.357675</v>
+        <v>0.130837</v>
       </c>
       <c r="N6">
-        <v>1.073025</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O6">
-        <v>0.004394280953245005</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P6">
-        <v>0.004394280953245006</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q6">
-        <v>5.513498843349999</v>
+        <v>2.115813754751667</v>
       </c>
       <c r="R6">
-        <v>49.62148959014999</v>
+        <v>19.042323792765</v>
       </c>
       <c r="S6">
-        <v>0.002842252565381057</v>
+        <v>0.001604321110021987</v>
       </c>
       <c r="T6">
-        <v>0.002842252565381057</v>
+        <v>0.001604321110021988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.41482866666666</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H7">
-        <v>46.24448599999999</v>
+        <v>0.415244</v>
       </c>
       <c r="I7">
-        <v>0.6468072013652575</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J7">
-        <v>0.6468072013652573</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2117236666666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N7">
-        <v>0.635171</v>
+        <v>58.238832</v>
       </c>
       <c r="O7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q7">
-        <v>3.263684046345111</v>
+        <v>2.687036172778666</v>
       </c>
       <c r="R7">
-        <v>29.373156417106</v>
+        <v>24.183325555008</v>
       </c>
       <c r="S7">
-        <v>0.001682455119131103</v>
+        <v>0.00203745194760182</v>
       </c>
       <c r="T7">
-        <v>0.001682455119131103</v>
+        <v>0.00203745194760182</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>0.415244</v>
       </c>
       <c r="I8">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J8">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.987818</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N8">
-        <v>8.963454</v>
+        <v>14.22398</v>
       </c>
       <c r="O8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q8">
-        <v>0.4135578325306667</v>
+        <v>0.6562691501244444</v>
       </c>
       <c r="R8">
-        <v>3.722020492776</v>
+        <v>5.906422351120001</v>
       </c>
       <c r="S8">
-        <v>0.0002131923564038554</v>
+        <v>0.000497617736455452</v>
       </c>
       <c r="T8">
-        <v>0.0002131923564038553</v>
+        <v>0.0004976177364554519</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>0.415244</v>
       </c>
       <c r="I9">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J9">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.741326666666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N9">
-        <v>14.22398</v>
+        <v>0.245974</v>
       </c>
       <c r="O9">
-        <v>0.05825042696427194</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P9">
-        <v>0.05825042696427195</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q9">
-        <v>0.6562691501244444</v>
+        <v>0.01134880307288889</v>
       </c>
       <c r="R9">
-        <v>5.906422351120001</v>
+        <v>0.102139227656</v>
       </c>
       <c r="S9">
-        <v>0.0003383119736701176</v>
+        <v>8.605258521658026E-06</v>
       </c>
       <c r="T9">
-        <v>0.0003383119736701176</v>
+        <v>8.605258521658026E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>0.415244</v>
       </c>
       <c r="I10">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J10">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1099783333333333</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N10">
-        <v>0.329935</v>
+        <v>112.478254</v>
       </c>
       <c r="O10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q10">
-        <v>0.01522261434888889</v>
+        <v>5.189546678219555</v>
       </c>
       <c r="R10">
-        <v>0.13700352914</v>
+        <v>46.705920103976</v>
       </c>
       <c r="S10">
-        <v>7.847378935631957E-06</v>
+        <v>0.003934986843059493</v>
       </c>
       <c r="T10">
-        <v>7.847378935631955E-06</v>
+        <v>0.003934986843059493</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>0.415244</v>
       </c>
       <c r="I11">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J11">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>72.98704766666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N11">
-        <v>218.961143</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q11">
-        <v>10.10247787376578</v>
+        <v>0.01810975974266667</v>
       </c>
       <c r="R11">
-        <v>90.92230086389199</v>
+        <v>0.162987837684</v>
       </c>
       <c r="S11">
-        <v>0.00520790780396168</v>
+        <v>1.373177094975288E-05</v>
       </c>
       <c r="T11">
-        <v>0.005207907803961679</v>
+        <v>1.373177094975288E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1384146666666667</v>
+        <v>1.939353</v>
       </c>
       <c r="H12">
-        <v>0.415244</v>
+        <v>5.818059</v>
       </c>
       <c r="I12">
-        <v>0.005807888307456049</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J12">
-        <v>0.005807888307456048</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.357675</v>
+        <v>19.412944</v>
       </c>
       <c r="N12">
-        <v>1.073025</v>
+        <v>58.238832</v>
       </c>
       <c r="O12">
-        <v>0.004394280953245005</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P12">
-        <v>0.004394280953245006</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q12">
-        <v>0.04950746589999999</v>
+        <v>37.64855118523199</v>
       </c>
       <c r="R12">
-        <v>0.4455671931</v>
+        <v>338.836960667088</v>
       </c>
       <c r="S12">
-        <v>2.552149296802849E-05</v>
+        <v>0.02854710878618908</v>
       </c>
       <c r="T12">
-        <v>2.552149296802849E-05</v>
+        <v>0.02854710878618907</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1384146666666667</v>
+        <v>1.939353</v>
       </c>
       <c r="H13">
-        <v>0.415244</v>
+        <v>5.818059</v>
       </c>
       <c r="I13">
-        <v>0.005807888307456049</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J13">
-        <v>0.005807888307456048</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2117236666666667</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N13">
-        <v>0.635171</v>
+        <v>14.22398</v>
       </c>
       <c r="O13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q13">
-        <v>0.02930566074711111</v>
+        <v>9.19510609498</v>
       </c>
       <c r="R13">
-        <v>0.263750946724</v>
+        <v>82.75595485482</v>
       </c>
       <c r="S13">
-        <v>1.510730151673598E-05</v>
+        <v>0.006972212362235867</v>
       </c>
       <c r="T13">
-        <v>1.510730151673598E-05</v>
+        <v>0.006972212362235866</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H14">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I14">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J14">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.987818</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N14">
-        <v>8.963454</v>
+        <v>0.245974</v>
       </c>
       <c r="O14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q14">
-        <v>4.836490549926666</v>
+        <v>0.159010138274</v>
       </c>
       <c r="R14">
-        <v>43.52841494934</v>
+        <v>1.431091244466</v>
       </c>
       <c r="S14">
-        <v>0.002493249398165816</v>
+        <v>0.0001205698379489148</v>
       </c>
       <c r="T14">
-        <v>0.002493249398165816</v>
+        <v>0.0001205698379489148</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H15">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I15">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J15">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.741326666666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N15">
-        <v>14.22398</v>
+        <v>112.478254</v>
       </c>
       <c r="O15">
-        <v>0.05825042696427194</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P15">
-        <v>0.05825042696427195</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q15">
-        <v>7.674959323977776</v>
+        <v>72.71167977655399</v>
       </c>
       <c r="R15">
-        <v>69.07463391579999</v>
+        <v>654.4051179889859</v>
       </c>
       <c r="S15">
-        <v>0.003956502657850713</v>
+        <v>0.05513381437695397</v>
       </c>
       <c r="T15">
-        <v>0.003956502657850712</v>
+        <v>0.05513381437695396</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H16">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I16">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J16">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,33 +1429,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1099783333333333</v>
+        <v>0.130837</v>
       </c>
       <c r="N16">
-        <v>0.329935</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q16">
-        <v>0.1780259607055555</v>
+        <v>0.253739128461</v>
       </c>
       <c r="R16">
-        <v>1.60223364635</v>
+        <v>2.283652156149</v>
       </c>
       <c r="S16">
-        <v>9.177380061121958E-05</v>
+        <v>0.0001923983334139645</v>
       </c>
       <c r="T16">
-        <v>9.177380061121955E-05</v>
+        <v>0.0001923983334139645</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.618736666666666</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H17">
-        <v>4.856209999999999</v>
+        <v>5.052394</v>
       </c>
       <c r="I17">
-        <v>0.06792229454862957</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J17">
-        <v>0.06792229454862955</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>72.98704766666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N17">
-        <v>218.961143</v>
+        <v>58.238832</v>
       </c>
       <c r="O17">
-        <v>0.8966955850848359</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P17">
-        <v>0.8966955850848359</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q17">
-        <v>118.1468102497811</v>
+        <v>32.69394726264533</v>
       </c>
       <c r="R17">
-        <v>1063.32129224803</v>
+        <v>294.2455253638079</v>
       </c>
       <c r="S17">
-        <v>0.06090562165058795</v>
+        <v>0.02479026787949194</v>
       </c>
       <c r="T17">
-        <v>0.06090562165058794</v>
+        <v>0.02479026787949194</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,61 +1535,61 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.618736666666666</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H18">
-        <v>4.856209999999999</v>
+        <v>5.052394</v>
       </c>
       <c r="I18">
-        <v>0.06792229454862957</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J18">
-        <v>0.06792229454862955</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.357675</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N18">
-        <v>1.073025</v>
+        <v>14.22398</v>
       </c>
       <c r="O18">
-        <v>0.004394280953245005</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P18">
-        <v>0.004394280953245006</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q18">
-        <v>0.5789816372499998</v>
+        <v>7.985016800902222</v>
       </c>
       <c r="R18">
-        <v>5.210834735249999</v>
+        <v>71.86515120812</v>
       </c>
       <c r="S18">
-        <v>0.0002984696452357399</v>
+        <v>0.00605465910635941</v>
       </c>
       <c r="T18">
-        <v>0.0002984696452357399</v>
+        <v>0.00605465910635941</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.618736666666666</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H19">
-        <v>4.856209999999999</v>
+        <v>5.052394</v>
       </c>
       <c r="I19">
-        <v>0.06792229454862957</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J19">
-        <v>0.06792229454862955</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2117236666666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N19">
-        <v>0.635171</v>
+        <v>0.245974</v>
       </c>
       <c r="O19">
-        <v>0.002601169429746356</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P19">
-        <v>0.002601169429746356</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q19">
-        <v>0.3427248624344444</v>
+        <v>0.1380841735284444</v>
       </c>
       <c r="R19">
-        <v>3.084523761909999</v>
+        <v>1.242757561756</v>
       </c>
       <c r="S19">
-        <v>0.0001766773961781228</v>
+        <v>0.0001047026724607072</v>
       </c>
       <c r="T19">
-        <v>0.0001766773961781228</v>
+        <v>0.0001047026724607072</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H20">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I20">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J20">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.987818</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N20">
-        <v>8.963454</v>
+        <v>112.478254</v>
       </c>
       <c r="O20">
-        <v>0.03670737884717296</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P20">
-        <v>0.03670737884717296</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q20">
-        <v>4.172728854318668</v>
+        <v>63.14271729334177</v>
       </c>
       <c r="R20">
-        <v>37.554559688868</v>
+        <v>568.2844556400759</v>
       </c>
       <c r="S20">
-        <v>0.002151074957625401</v>
+        <v>0.04787812446646484</v>
       </c>
       <c r="T20">
-        <v>0.0021510749576254</v>
+        <v>0.04787812446646484</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H21">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I21">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J21">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>4.741326666666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N21">
-        <v>14.22398</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O21">
-        <v>0.05825042696427194</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P21">
-        <v>0.05825042696427195</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q21">
-        <v>6.621645157017778</v>
+        <v>0.2203466912593333</v>
       </c>
       <c r="R21">
-        <v>59.59480641316</v>
+        <v>1.983120221334</v>
       </c>
       <c r="S21">
-        <v>0.003413510815782012</v>
+        <v>0.0001670784337784669</v>
       </c>
       <c r="T21">
-        <v>0.003413510815782012</v>
+        <v>0.000167078433778467</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.396580666666667</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H22">
-        <v>4.189742</v>
+        <v>1.410979</v>
       </c>
       <c r="I22">
-        <v>0.05860061451353307</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J22">
-        <v>0.05860061451353305</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1099783333333333</v>
+        <v>19.412944</v>
       </c>
       <c r="N22">
-        <v>0.329935</v>
+        <v>58.238832</v>
       </c>
       <c r="O22">
-        <v>0.001351158720727747</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P22">
-        <v>0.001351158720727747</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q22">
-        <v>0.1535936140855556</v>
+        <v>9.130418770725333</v>
       </c>
       <c r="R22">
-        <v>1.38234252677</v>
+        <v>82.17376893652799</v>
       </c>
       <c r="S22">
-        <v>7.91787313399652E-05</v>
+        <v>0.006923163035649567</v>
       </c>
       <c r="T22">
-        <v>7.917873133996518E-05</v>
+        <v>0.006923163035649566</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.396580666666667</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H23">
-        <v>4.189742</v>
+        <v>1.410979</v>
       </c>
       <c r="I23">
-        <v>0.05860061451353307</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J23">
-        <v>0.05860061451353305</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>72.98704766666667</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N23">
-        <v>218.961143</v>
+        <v>14.22398</v>
       </c>
       <c r="O23">
-        <v>0.8966955850848359</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P23">
-        <v>0.8966955850848359</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q23">
-        <v>101.9322996883451</v>
+        <v>2.229970786268889</v>
       </c>
       <c r="R23">
-        <v>917.390697195106</v>
+        <v>20.06973707642</v>
       </c>
       <c r="S23">
-        <v>0.05254691231754346</v>
+        <v>0.001690880966771771</v>
       </c>
       <c r="T23">
-        <v>0.05254691231754345</v>
+        <v>0.001690880966771771</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.396580666666667</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H24">
-        <v>4.189742</v>
+        <v>1.410979</v>
       </c>
       <c r="I24">
-        <v>0.05860061451353307</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J24">
-        <v>0.05860061451353305</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,43 +1925,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.357675</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N24">
-        <v>1.073025</v>
+        <v>0.245974</v>
       </c>
       <c r="O24">
-        <v>0.004394280953245005</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P24">
-        <v>0.004394280953245006</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q24">
-        <v>0.49952198995</v>
+        <v>0.03856268317177778</v>
       </c>
       <c r="R24">
-        <v>4.49569790955</v>
+        <v>0.347064148546</v>
       </c>
       <c r="S24">
-        <v>0.0002575075642052712</v>
+        <v>2.92402516680085E-05</v>
       </c>
       <c r="T24">
-        <v>0.0002575075642052711</v>
+        <v>2.92402516680085E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.396580666666667</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H25">
-        <v>4.189742</v>
+        <v>1.410979</v>
       </c>
       <c r="I25">
-        <v>0.05860061451353307</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J25">
-        <v>0.05860061451353305</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2117236666666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N25">
-        <v>0.635171</v>
+        <v>112.478254</v>
       </c>
       <c r="O25">
-        <v>0.002601169429746356</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P25">
-        <v>0.002601169429746356</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q25">
-        <v>0.2956891795424444</v>
+        <v>17.63382826118511</v>
       </c>
       <c r="R25">
-        <v>2.661202615882</v>
+        <v>158.704454350666</v>
       </c>
       <c r="S25">
-        <v>0.0001524301270369528</v>
+        <v>0.01337089470488012</v>
       </c>
       <c r="T25">
-        <v>0.0001524301270369528</v>
+        <v>0.01337089470488012</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H26">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I26">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J26">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>2.987818</v>
+        <v>0.130837</v>
       </c>
       <c r="N26">
-        <v>8.963454</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O26">
-        <v>0.03670737884717296</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P26">
-        <v>0.03670737884717296</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q26">
-        <v>2.680193254659334</v>
+        <v>0.06153608647433334</v>
       </c>
       <c r="R26">
-        <v>24.12173929193401</v>
+        <v>0.5538247782690001</v>
       </c>
       <c r="S26">
-        <v>0.001381660968871073</v>
+        <v>4.665989260028167E-05</v>
       </c>
       <c r="T26">
-        <v>0.001381660968871073</v>
+        <v>4.665989260028168E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.8970403333333334</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H27">
-        <v>2.691121</v>
+        <v>2.747747</v>
       </c>
       <c r="I27">
-        <v>0.03763987002786177</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J27">
-        <v>0.03763987002786177</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,33 +2111,33 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.741326666666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N27">
-        <v>14.22398</v>
+        <v>58.238832</v>
       </c>
       <c r="O27">
-        <v>0.05825042696427194</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P27">
-        <v>0.05825042696427195</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q27">
-        <v>4.25316125350889</v>
+        <v>17.78061954572267</v>
       </c>
       <c r="R27">
-        <v>38.27845128158</v>
+        <v>160.025575911504</v>
       </c>
       <c r="S27">
-        <v>0.002192538500002651</v>
+        <v>0.01348219956619977</v>
       </c>
       <c r="T27">
-        <v>0.002192538500002651</v>
+        <v>0.01348219956619977</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.8970403333333334</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H28">
-        <v>2.691121</v>
+        <v>2.747747</v>
       </c>
       <c r="I28">
-        <v>0.03763987002786177</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J28">
-        <v>0.03763987002786177</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.1099783333333333</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N28">
-        <v>0.329935</v>
+        <v>14.22398</v>
       </c>
       <c r="O28">
-        <v>0.001351158720727747</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P28">
-        <v>0.001351158720727747</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q28">
-        <v>0.09865500079277778</v>
+        <v>4.342655374784445</v>
       </c>
       <c r="R28">
-        <v>0.887895007135</v>
+        <v>39.08389837306</v>
       </c>
       <c r="S28">
-        <v>5.08574386352044E-05</v>
+        <v>0.003292829378611753</v>
       </c>
       <c r="T28">
-        <v>5.085743863520438E-05</v>
+        <v>0.003292829378611753</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.8970403333333334</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H29">
-        <v>2.691121</v>
+        <v>2.747747</v>
       </c>
       <c r="I29">
-        <v>0.03763987002786177</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J29">
-        <v>0.03763987002786177</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>72.98704766666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N29">
-        <v>218.961143</v>
+        <v>0.245974</v>
       </c>
       <c r="O29">
-        <v>0.8966955850848359</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P29">
-        <v>0.8966955850848359</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q29">
-        <v>65.47232556792257</v>
+        <v>0.07509714673088889</v>
       </c>
       <c r="R29">
-        <v>589.2509301113031</v>
+        <v>0.675874320578</v>
       </c>
       <c r="S29">
-        <v>0.03375150527715069</v>
+        <v>5.694260070491152E-05</v>
       </c>
       <c r="T29">
-        <v>0.03375150527715069</v>
+        <v>5.694260070491151E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,61 +2279,61 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.8970403333333334</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H30">
-        <v>2.691121</v>
+        <v>2.747747</v>
       </c>
       <c r="I30">
-        <v>0.03763987002786177</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J30">
-        <v>0.03763987002786177</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.357675</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N30">
-        <v>1.073025</v>
+        <v>112.478254</v>
       </c>
       <c r="O30">
-        <v>0.004394280953245005</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P30">
-        <v>0.004394280953245006</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q30">
-        <v>0.320848901225</v>
+        <v>34.34019833263756</v>
       </c>
       <c r="R30">
-        <v>2.887640111025</v>
+        <v>309.0617849937379</v>
       </c>
       <c r="S30">
-        <v>0.0001654001639460505</v>
+        <v>0.02603854190080096</v>
       </c>
       <c r="T30">
-        <v>0.0001654001639460505</v>
+        <v>0.02603854190080096</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
         <v>3</v>
       </c>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.8970403333333334</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H31">
-        <v>2.691121</v>
+        <v>2.747747</v>
       </c>
       <c r="I31">
-        <v>0.03763987002786177</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J31">
-        <v>0.03763987002786177</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.2117236666666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N31">
-        <v>0.635171</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O31">
-        <v>0.002601169429746356</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P31">
-        <v>0.002601169429746356</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q31">
-        <v>0.1899246685212223</v>
+        <v>0.1198356580796667</v>
       </c>
       <c r="R31">
-        <v>1.709322016691</v>
+        <v>1.078520922717</v>
       </c>
       <c r="S31">
-        <v>9.790767925610017E-05</v>
+        <v>9.086568964722095E-05</v>
       </c>
       <c r="T31">
-        <v>9.790767925610015E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>4.366583666666666</v>
-      </c>
-      <c r="H32">
-        <v>13.099751</v>
-      </c>
-      <c r="I32">
-        <v>0.1832221312372622</v>
-      </c>
-      <c r="J32">
-        <v>0.1832221312372621</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>2.987818</v>
-      </c>
-      <c r="N32">
-        <v>8.963454</v>
-      </c>
-      <c r="O32">
-        <v>0.03670737884717296</v>
-      </c>
-      <c r="P32">
-        <v>0.03670737884717296</v>
-      </c>
-      <c r="Q32">
-        <v>13.04655727777267</v>
-      </c>
-      <c r="R32">
-        <v>117.419015499954</v>
-      </c>
-      <c r="S32">
-        <v>0.006725604184512625</v>
-      </c>
-      <c r="T32">
-        <v>0.006725604184512624</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>4.366583666666666</v>
-      </c>
-      <c r="H33">
-        <v>13.099751</v>
-      </c>
-      <c r="I33">
-        <v>0.1832221312372622</v>
-      </c>
-      <c r="J33">
-        <v>0.1832221312372621</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>4.741326666666667</v>
-      </c>
-      <c r="N33">
-        <v>14.22398</v>
-      </c>
-      <c r="O33">
-        <v>0.05825042696427194</v>
-      </c>
-      <c r="P33">
-        <v>0.05825042696427195</v>
-      </c>
-      <c r="Q33">
-        <v>20.70339958099778</v>
-      </c>
-      <c r="R33">
-        <v>186.33059622898</v>
-      </c>
-      <c r="S33">
-        <v>0.01067276737387439</v>
-      </c>
-      <c r="T33">
-        <v>0.01067276737387439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>4.366583666666666</v>
-      </c>
-      <c r="H34">
-        <v>13.099751</v>
-      </c>
-      <c r="I34">
-        <v>0.1832221312372622</v>
-      </c>
-      <c r="J34">
-        <v>0.1832221312372621</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.1099783333333333</v>
-      </c>
-      <c r="N34">
-        <v>0.329935</v>
-      </c>
-      <c r="O34">
-        <v>0.001351158720727747</v>
-      </c>
-      <c r="P34">
-        <v>0.001351158720727747</v>
-      </c>
-      <c r="Q34">
-        <v>0.4802295940205555</v>
-      </c>
-      <c r="R34">
-        <v>4.322066346184999</v>
-      </c>
-      <c r="S34">
-        <v>0.0002475621804515506</v>
-      </c>
-      <c r="T34">
-        <v>0.0002475621804515505</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>4.366583666666666</v>
-      </c>
-      <c r="H35">
-        <v>13.099751</v>
-      </c>
-      <c r="I35">
-        <v>0.1832221312372622</v>
-      </c>
-      <c r="J35">
-        <v>0.1832221312372621</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>72.98704766666667</v>
-      </c>
-      <c r="N35">
-        <v>218.961143</v>
-      </c>
-      <c r="O35">
-        <v>0.8966955850848359</v>
-      </c>
-      <c r="P35">
-        <v>0.8966955850848359</v>
-      </c>
-      <c r="Q35">
-        <v>318.7040502194881</v>
-      </c>
-      <c r="R35">
-        <v>2868.336451975392</v>
-      </c>
-      <c r="S35">
-        <v>0.1642944761702874</v>
-      </c>
-      <c r="T35">
-        <v>0.1642944761702873</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>4.366583666666666</v>
-      </c>
-      <c r="H36">
-        <v>13.099751</v>
-      </c>
-      <c r="I36">
-        <v>0.1832221312372622</v>
-      </c>
-      <c r="J36">
-        <v>0.1832221312372621</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.357675</v>
-      </c>
-      <c r="N36">
-        <v>1.073025</v>
-      </c>
-      <c r="O36">
-        <v>0.004394280953245005</v>
-      </c>
-      <c r="P36">
-        <v>0.004394280953245006</v>
-      </c>
-      <c r="Q36">
-        <v>1.561817812975</v>
-      </c>
-      <c r="R36">
-        <v>14.056360316775</v>
-      </c>
-      <c r="S36">
-        <v>0.0008051295215088578</v>
-      </c>
-      <c r="T36">
-        <v>0.0008051295215088577</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>4.366583666666666</v>
-      </c>
-      <c r="H37">
-        <v>13.099751</v>
-      </c>
-      <c r="I37">
-        <v>0.1832221312372622</v>
-      </c>
-      <c r="J37">
-        <v>0.1832221312372621</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.2117236666666667</v>
-      </c>
-      <c r="N37">
-        <v>0.635171</v>
-      </c>
-      <c r="O37">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="P37">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="Q37">
-        <v>0.9245091047134444</v>
-      </c>
-      <c r="R37">
-        <v>8.320581942420999</v>
-      </c>
-      <c r="S37">
-        <v>0.0004765918066273413</v>
-      </c>
-      <c r="T37">
-        <v>0.0004765918066273411</v>
+        <v>9.086568964722095E-05</v>
       </c>
     </row>
   </sheetData>
